--- a/data/extracted_data/raw/Min_etal_2018_Fig1.xlsx
+++ b/data/extracted_data/raw/Min_etal_2018_Fig1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F958D9F2-D0E7-684A-B35D-128B33E844EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0B991-55C9-FB4D-A61D-4372A5F118F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="840" windowWidth="22980" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="600" windowWidth="22980" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>study</t>
   </si>
   <si>
-    <t>phase</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>exposure</t>
-  </si>
-  <si>
-    <t>depuration</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>Figure 1A</t>
+  </si>
+  <si>
+    <t>Figure 1B</t>
+  </si>
+  <si>
+    <t>figure</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,13 +120,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -435,1004 +447,996 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.6999999999999999E-3</v>
+        <v>1.16281626953138E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1.5E-3</v>
+        <v>9.8138394378888204E-5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>1.4E-3</v>
+        <v>1.1894813234663399E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
       <c r="F5">
-        <v>1.2999999999999999E-3</v>
+        <v>2.5263076872326599E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>1.6E-2</v>
+        <v>2.5084393521216499E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1.2E-2</v>
+        <v>2.2445377874052898E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>1.9806362226889298E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
       </c>
       <c r="E9">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>7.0000000000000001E-3</v>
+        <v>1.96304278504117E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.02</v>
+        <v>1.1012392377643099E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1.4999999999999999E-2</v>
+        <v>1.45310799071946E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>1.7000000000000001E-2</v>
+        <v>8.5781753405979495E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
       <c r="F13">
-        <v>8.0000000000000002E-3</v>
+        <v>1.3240161419790401E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>2.2000000000000001E-3</v>
+        <v>1.24841933958633E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>1.8E-3</v>
+        <v>6.5552049085691004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>1.1999999999999999E-3</v>
+        <v>6.9070736615242396E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>1E-3</v>
+        <v>3.9335078015900003E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.6E-2</v>
+        <v>6.5202929307368197E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1.4E-2</v>
+        <v>1.25366988113433E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
       <c r="F20">
-        <v>0.01</v>
+        <v>2.1386472845628501E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
       <c r="F21">
-        <v>8.0000000000000002E-3</v>
+        <v>2.0383646899706401E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>2.4E-2</v>
+        <v>1.6301694467963399E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>1.9E-2</v>
+        <v>1.04961349416667E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
       </c>
       <c r="E24">
         <v>12</v>
       </c>
       <c r="F24">
-        <v>1.7000000000000001E-2</v>
+        <v>1.23255775595702E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
       </c>
       <c r="E25">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>1.4999999999999999E-2</v>
+        <v>4.9187403098644097E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>0.1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>0.1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1.1999999999999999E-3</v>
+        <v>5.3761516188470504E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>0.1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>1.5E-3</v>
+        <v>1.7906817583574701E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
       </c>
       <c r="E29">
         <v>7</v>
       </c>
       <c r="F29">
-        <v>1.8E-3</v>
+        <v>3.6097920505396199E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>3.0000000000000001E-3</v>
+        <v>3.7317188733877399E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>7.0000000000000001E-3</v>
+        <v>2.1545669913135201E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>1.0999999999999999E-2</v>
+        <v>2.27617794156358E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>1.7000000000000001E-2</v>
+        <v>1.12355883127139E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>6.0000000000000001E-3</v>
+        <v>2.3974730192155799E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1.2E-2</v>
+        <v>4.2168991839958E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
-        <v>1.7999999999999999E-2</v>
+        <v>1.02816530665964E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>7</v>
       </c>
       <c r="F37">
-        <v>2.1999999999999999E-2</v>
+        <v>9.5538826006843908E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>0.1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>1.5E-3</v>
+        <v>1.33541458278494E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>0.1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>2E-3</v>
+        <v>1.12112661226638E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0.1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>2.2000000000000001E-3</v>
+        <v>5.6724401158199699E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>0.1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>2.5000000000000001E-3</v>
+        <v>6.0764411687286302E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>5.0000000000000001E-3</v>
+        <v>8.3409318241642692E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>8.0000000000000002E-3</v>
+        <v>7.3301395103974702E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44">
-        <v>1.2999999999999999E-2</v>
+        <v>1.52342195314556E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
       </c>
       <c r="E45">
         <v>7</v>
       </c>
       <c r="F45">
-        <v>1.7000000000000001E-2</v>
+        <v>2.3421953145564601E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>8.0000000000000002E-3</v>
+        <v>2.6090444853908899E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>1.4E-2</v>
+        <v>1.4182995525138201E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>2.1000000000000001E-2</v>
+        <v>1.1474387996841201E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>2.5999999999999999E-2</v>
+        <v>1.04632798104764E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F49">
-    <sortCondition ref="D2:D49"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>